--- a/notebooks/esann26/results.xlsx
+++ b/notebooks/esann26/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\sign-language\sign-language-processing\notebooks\esann26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37019E51-5A5F-4E7F-B36A-E57E4AC6B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC97AC-3A1D-448C-840A-65E4DC0786F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3015" windowWidth="29040" windowHeight="15720" xr2:uid="{E0501759-F644-4C0A-9D1D-9BBF3221AD4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>ResNet50</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Dev</t>
+  </si>
+  <si>
+    <t>Iter5</t>
+  </si>
+  <si>
+    <t>LSFB 2000</t>
+  </si>
+  <si>
+    <t>LSFB 500</t>
   </si>
 </sst>
 </file>
@@ -110,12 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF9D38C-EC4C-4267-97E6-D8B8F9DFC0B7}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,288 +469,653 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>39.06</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>37.49</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>38.4</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>37.19</v>
       </c>
-      <c r="F3">
-        <f>AVERAGE(B3:E3)</f>
+      <c r="F4">
+        <f>AVERAGE(B4:E4)</f>
         <v>38.035000000000004</v>
       </c>
-      <c r="G3">
-        <f>_xlfn.STDEV.S(B3:E3)</f>
+      <c r="G4">
+        <f>_xlfn.STDEV.S(B4:E4)</f>
         <v>0.85535567650734345</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>59.45</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>58.18</v>
       </c>
-      <c r="K3">
+      <c r="L4">
         <v>58.89</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>57.91</v>
       </c>
-      <c r="M3">
-        <f>AVERAGE(I3:L3)</f>
+      <c r="N4">
+        <f>AVERAGE(J4:M4)</f>
         <v>58.607499999999995</v>
       </c>
-      <c r="N3">
-        <f>_xlfn.STDEV.S(I3:L3)</f>
+      <c r="O4">
+        <f>_xlfn.STDEV.S(J4:M4)</f>
         <v>0.69734615985654502</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>40.85</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>41.63</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>40.909999999999997</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>39.729999999999997</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">AVERAGE(B4:E4)</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">AVERAGE(B5:E5)</f>
         <v>40.78</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G7" si="1">_xlfn.STDEV.S(B4:E4)</f>
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="1">_xlfn.STDEV.S(B5:E5)</f>
         <v>0.78460180983732342</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>61.62</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>62.02</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>61.64</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>60.68</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M7" si="2">AVERAGE(I4:L4)</f>
+      <c r="N5">
+        <f t="shared" ref="N5:N8" si="2">AVERAGE(J5:M5)</f>
         <v>61.49</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N7" si="3">_xlfn.STDEV.S(I4:L4)</f>
+      <c r="O5">
+        <f t="shared" ref="O5:O8" si="3">_xlfn.STDEV.S(J5:M5)</f>
         <v>0.5704968594713451</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>40.29</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>41.39</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>40.33</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>40.74</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>40.6875</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>0.51057973585588734</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>61.31</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <v>61.96</v>
       </c>
-      <c r="K5">
+      <c r="L6">
         <v>60.75</v>
       </c>
-      <c r="L5">
+      <c r="M6">
         <v>61.32</v>
       </c>
-      <c r="M5">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>61.335000000000001</v>
       </c>
-      <c r="N5">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>0.49453682033461072</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>31.42</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>32.200000000000003</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>32.82</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>32.11</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>0.5774657276987667</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>51.72</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>51.34</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>51.98</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>52.87</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>51.977499999999999</v>
       </c>
-      <c r="N6">
+      <c r="O7">
         <f t="shared" si="3"/>
         <v>0.65045496897684152</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>34.43</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>31.69</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>33.93</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>34.93</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>33.745000000000005</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>1.4295337235150014</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>54.7</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>51.74</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>54.04</v>
       </c>
-      <c r="L7">
+      <c r="M8">
         <v>55.21</v>
       </c>
-      <c r="M7">
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>53.922499999999999</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <f t="shared" si="3"/>
         <v>1.5318044914413849</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>30.25</v>
+      </c>
+      <c r="C14">
+        <v>29.82</v>
+      </c>
+      <c r="D14">
+        <v>29.76</v>
+      </c>
+      <c r="E14">
+        <v>29.79</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <f>AVERAGE(B14:F14)</f>
+        <v>29.923999999999999</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.STDEV.S(B14:F14)</f>
+        <v>0.2047681615876841</v>
+      </c>
+      <c r="J14">
+        <v>50.05</v>
+      </c>
+      <c r="K14">
+        <v>49.53</v>
+      </c>
+      <c r="L14">
+        <v>49.67</v>
+      </c>
+      <c r="M14">
+        <v>49.56</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O18" si="4">AVERAGE(J14:N14)</f>
+        <v>49.762</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P18" si="5">_xlfn.STDEV.S(J14:N14)</f>
+        <v>0.24631280924872573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>32.85</v>
+      </c>
+      <c r="C15">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="D15">
+        <v>32.42</v>
+      </c>
+      <c r="E15">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="F15">
+        <v>32.71</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="6">AVERAGE(B15:F15)</f>
+        <v>32.852000000000004</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H18" si="7">_xlfn.STDEV.S(B15:F15)</f>
+        <v>0.34586124385365702</v>
+      </c>
+      <c r="J15">
+        <v>52.71</v>
+      </c>
+      <c r="K15">
+        <v>53.43</v>
+      </c>
+      <c r="L15">
+        <v>52.64</v>
+      </c>
+      <c r="M15">
+        <v>52.94</v>
+      </c>
+      <c r="N15">
+        <v>52.93</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>52.929999999999993</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.30927334188384187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>33.35</v>
+      </c>
+      <c r="C16">
+        <v>33.03</v>
+      </c>
+      <c r="D16">
+        <v>33.51</v>
+      </c>
+      <c r="E16">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="F16">
+        <v>32.81</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>33.164000000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>0.27364210202379197</v>
+      </c>
+      <c r="J16">
+        <v>53.53</v>
+      </c>
+      <c r="K16">
+        <v>53.22</v>
+      </c>
+      <c r="L16">
+        <v>53.65</v>
+      </c>
+      <c r="M16">
+        <v>53.07</v>
+      </c>
+      <c r="N16">
+        <v>52.89</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>53.272000000000006</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0.31578473680657804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>25.9</v>
+      </c>
+      <c r="C17">
+        <v>26.29</v>
+      </c>
+      <c r="D17">
+        <v>25.27</v>
+      </c>
+      <c r="E17">
+        <v>25.79</v>
+      </c>
+      <c r="F17">
+        <v>26.57</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>25.963999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0.49737309939320223</v>
+      </c>
+      <c r="J17">
+        <v>44.42</v>
+      </c>
+      <c r="K17">
+        <v>44.98</v>
+      </c>
+      <c r="L17">
+        <v>43.55</v>
+      </c>
+      <c r="M17">
+        <v>44.27</v>
+      </c>
+      <c r="N17">
+        <v>45.03</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>44.45</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0.60427642681143912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>27.35</v>
+      </c>
+      <c r="C18">
+        <v>27.97</v>
+      </c>
+      <c r="D18">
+        <v>27.78</v>
+      </c>
+      <c r="E18">
+        <v>27.67</v>
+      </c>
+      <c r="F18">
+        <v>27.92</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>27.738</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>0.24692104001076884</v>
+      </c>
+      <c r="J18">
+        <v>46.23</v>
+      </c>
+      <c r="K18">
+        <v>46.9</v>
+      </c>
+      <c r="L18">
+        <v>46.79</v>
+      </c>
+      <c r="M18">
+        <v>46.62</v>
+      </c>
+      <c r="N18">
+        <v>47</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>46.707999999999998</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0.30210925176167758</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="I1:L1"/>
+  <mergeCells count="6">
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
